--- a/tools/bsi/bs-it-gs-2023-con-konzeption-und-vorgehensweisen.xlsx
+++ b/tools/bsi/bs-it-gs-2023-con-konzeption-und-vorgehensweisen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abder/mydev/intuitem/staging/ciso-assistant-community/tools/bsi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B8A256-860F-3C40-ADE2-A079EBF2BF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76CB70F-881C-0C47-B354-F1545690E6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24940" yWindow="-25340" windowWidth="28800" windowHeight="25340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24940" yWindow="-25340" windowWidth="28800" windowHeight="25340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_content" sheetId="2" r:id="rId1"/>
@@ -4612,8 +4612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1D442F-4D46-7D4A-8391-906C352C41B4}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView zoomScale="242" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="242" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15639,7 +15639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D591AC34-76AA-404B-B419-C4B8362550C5}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="252" workbookViewId="0">
+    <sheetView zoomScale="252" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
